--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500" tabRatio="809" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="809" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t>cs</t>
   </si>
@@ -82,10 +82,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -108,10 +108,93 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,137 +206,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,43 +274,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,139 +448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,26 +468,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,32 +502,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -545,8 +510,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,153 +530,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1049,19 +1049,19 @@
       <selection activeCell="G4" sqref="G3:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.60833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.8583333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.61111111111111" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6296296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8611111111111" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.8796296296296" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.3796296296296" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
+    <row r="1" ht="15.6" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="16.5" spans="1:8">
+    <row r="2" ht="15.6" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="16.5" spans="1:8">
+    <row r="3" ht="16.2" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1107,7 +1107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:8">
+    <row r="4" ht="16.2" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
@@ -1129,7 +1129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:8">
+    <row r="5" ht="16.2" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
@@ -1151,7 +1151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="3:7">
+    <row r="6" ht="15.6" spans="3:7">
       <c r="C6" s="2">
         <f>D6*100+E6</f>
         <v>101</v>
@@ -1169,7 +1169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="16.5" spans="3:7">
+    <row r="7" s="1" customFormat="1" ht="15.6" spans="3:7">
       <c r="C7" s="2">
         <f>D7*100+E7</f>
         <v>102</v>
@@ -1196,25 +1196,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.60833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.8583333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.61111111111111" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6296296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8611111111111" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.8796296296296" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.3796296296296" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
+    <row r="1" ht="15.6" spans="1:8">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1224,7 +1224,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="16.5" spans="1:8">
+    <row r="2" ht="15.6" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="16.5" spans="1:8">
+    <row r="3" ht="16.2" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1258,7 +1258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:8">
+    <row r="4" ht="16.2" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
@@ -1280,7 +1280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:8">
+    <row r="5" ht="16.2" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
@@ -1302,7 +1302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="3:7">
+    <row r="6" ht="15.6" spans="3:7">
       <c r="C6" s="2">
         <f>D6*100+E6</f>
         <v>201</v>
@@ -1318,6 +1318,23 @@
       </c>
       <c r="G6" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="3:7">
+      <c r="C7" s="2">
+        <v>202</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>cs</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>巡逻</t>
+  </si>
+  <si>
+    <t>AI_Locate</t>
+  </si>
+  <si>
+    <t>定位</t>
   </si>
 </sst>
 </file>
@@ -1196,13 +1202,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.61111111111111" style="1" customWidth="1"/>
@@ -1331,9 +1337,26 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="3:7">
+      <c r="C8" s="2">
+        <v>203</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>cs</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>定位</t>
+  </si>
+  <si>
+    <t>AI_XunLuoFarSee</t>
+  </si>
+  <si>
+    <t>射手巡逻</t>
+  </si>
+  <si>
+    <t>AI_Shoot</t>
+  </si>
+  <si>
+    <t>射击</t>
   </si>
 </sst>
 </file>
@@ -1202,13 +1214,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.61111111111111" style="1" customWidth="1"/>
@@ -1360,6 +1372,40 @@
         <v>17</v>
       </c>
     </row>
+    <row r="9" ht="15.6" spans="3:7">
+      <c r="C9" s="2">
+        <v>204</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" spans="3:7">
+      <c r="C10" s="2">
+        <v>205</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
